--- a/public/QuestionForm.xlsx
+++ b/public/QuestionForm.xlsx
@@ -32,9 +32,6 @@
     <t>answer 1</t>
   </si>
   <si>
-    <t>correct answer</t>
-  </si>
-  <si>
     <t>answer 4</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>answer 2</t>
+  </si>
+  <si>
+    <t>correct answer(number)</t>
   </si>
 </sst>
 </file>
@@ -362,10 +362,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -375,16 +383,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
